--- a/data/pca/factorExposure/factorExposure_2009-12-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003595927496038796</v>
+        <v>0.01701301948822206</v>
       </c>
       <c r="C2">
-        <v>0.008506453064086487</v>
+        <v>-0.001176892986773428</v>
       </c>
       <c r="D2">
-        <v>-0.003266107444573833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006621077633646492</v>
+      </c>
+      <c r="E2">
+        <v>0.0003204871150801304</v>
+      </c>
+      <c r="F2">
+        <v>0.01130435617798168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03080868812068184</v>
+        <v>0.09370263653700159</v>
       </c>
       <c r="C4">
-        <v>0.1195452312140679</v>
+        <v>-0.01550256609415928</v>
       </c>
       <c r="D4">
-        <v>-0.02731203410219252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08406457890103868</v>
+      </c>
+      <c r="E4">
+        <v>-0.02838023659675239</v>
+      </c>
+      <c r="F4">
+        <v>-0.03057703259815224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03938407941815025</v>
+        <v>0.1572256672973115</v>
       </c>
       <c r="C6">
-        <v>0.1139932517150553</v>
+        <v>-0.02539778693663426</v>
       </c>
       <c r="D6">
-        <v>0.03686932036468192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02248768804502971</v>
+      </c>
+      <c r="E6">
+        <v>-0.008959514456974588</v>
+      </c>
+      <c r="F6">
+        <v>-0.04589190329364917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0108917972574234</v>
+        <v>0.06266910856440135</v>
       </c>
       <c r="C7">
-        <v>0.08254931589176805</v>
+        <v>0.001309809947116281</v>
       </c>
       <c r="D7">
-        <v>-0.006619689200235218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05275271455080401</v>
+      </c>
+      <c r="E7">
+        <v>-0.009848233458507325</v>
+      </c>
+      <c r="F7">
+        <v>-0.04727435490219975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0009244492759131307</v>
+        <v>0.05722514344095195</v>
       </c>
       <c r="C8">
-        <v>0.07164618526320596</v>
+        <v>0.01344881521917582</v>
       </c>
       <c r="D8">
-        <v>0.02485431854756977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03382027865014053</v>
+      </c>
+      <c r="E8">
+        <v>-0.01755745949939672</v>
+      </c>
+      <c r="F8">
+        <v>0.0280021071902405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02575001880742911</v>
+        <v>0.07126585063709594</v>
       </c>
       <c r="C9">
-        <v>0.09872056254402523</v>
+        <v>-0.01119145370803122</v>
       </c>
       <c r="D9">
-        <v>-0.0308394285643168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08583476760850547</v>
+      </c>
+      <c r="E9">
+        <v>-0.02292311756929149</v>
+      </c>
+      <c r="F9">
+        <v>-0.04711496544444629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01249763619748432</v>
+        <v>0.09607978077235187</v>
       </c>
       <c r="C10">
-        <v>0.02635353988709496</v>
+        <v>-0.02054733836586506</v>
       </c>
       <c r="D10">
-        <v>0.145720463334622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.172823507526693</v>
+      </c>
+      <c r="E10">
+        <v>0.03700227304054628</v>
+      </c>
+      <c r="F10">
+        <v>0.05412575337943221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.03034112949162172</v>
+        <v>0.0878929106666592</v>
       </c>
       <c r="C11">
-        <v>0.1033814878388121</v>
+        <v>-0.01079594733011273</v>
       </c>
       <c r="D11">
-        <v>-0.04185036043031521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1153425793128116</v>
+      </c>
+      <c r="E11">
+        <v>-0.04569378594402537</v>
+      </c>
+      <c r="F11">
+        <v>-0.02137777502398412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02813261026507045</v>
+        <v>0.09214079826689277</v>
       </c>
       <c r="C12">
-        <v>0.1142422011410549</v>
+        <v>-0.007877667570352593</v>
       </c>
       <c r="D12">
-        <v>-0.03777410323894155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1314282158455387</v>
+      </c>
+      <c r="E12">
+        <v>-0.04759903706939948</v>
+      </c>
+      <c r="F12">
+        <v>-0.02565987408883266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009914177226007759</v>
+        <v>0.04243077906064439</v>
       </c>
       <c r="C13">
-        <v>0.04408191467141777</v>
+        <v>-0.003454433221504248</v>
       </c>
       <c r="D13">
-        <v>-0.02185638312908258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05089167993706149</v>
+      </c>
+      <c r="E13">
+        <v>0.0086461445086359</v>
+      </c>
+      <c r="F13">
+        <v>-0.002257722669995701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01599698494781267</v>
+        <v>0.0228881376675871</v>
       </c>
       <c r="C14">
-        <v>0.02203744892310563</v>
+        <v>-0.01385448585817873</v>
       </c>
       <c r="D14">
-        <v>0.001427857369244344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03290961360829719</v>
+      </c>
+      <c r="E14">
+        <v>-0.01719686048405537</v>
+      </c>
+      <c r="F14">
+        <v>-0.01406579207108712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01052903767498152</v>
+        <v>0.03285933110969309</v>
       </c>
       <c r="C15">
-        <v>0.02710657683784378</v>
+        <v>-0.004817218354042064</v>
       </c>
       <c r="D15">
-        <v>-0.0148398544001781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04552542513855069</v>
+      </c>
+      <c r="E15">
+        <v>-0.006482731959370854</v>
+      </c>
+      <c r="F15">
+        <v>-0.02281856615817623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01982944847294953</v>
+        <v>0.07413112638263793</v>
       </c>
       <c r="C16">
-        <v>0.1085671009984982</v>
+        <v>-0.001934053215211846</v>
       </c>
       <c r="D16">
-        <v>-0.01945206887735269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1249895148260075</v>
+      </c>
+      <c r="E16">
+        <v>-0.06160242735869501</v>
+      </c>
+      <c r="F16">
+        <v>-0.02420269224746324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03169056172078973</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003264240184927348</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0191009618709501</v>
+      </c>
+      <c r="E18">
+        <v>0.007432497950332433</v>
+      </c>
+      <c r="F18">
+        <v>0.00344290563390101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0124120224837352</v>
+        <v>0.06107262861502156</v>
       </c>
       <c r="C20">
-        <v>0.06447311710998575</v>
+        <v>-0.000351627516277984</v>
       </c>
       <c r="D20">
-        <v>-0.007453486666336425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07704441144133768</v>
+      </c>
+      <c r="E20">
+        <v>-0.05561093026184739</v>
+      </c>
+      <c r="F20">
+        <v>-0.02319604769159394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01379244014331707</v>
+        <v>0.04056553419576914</v>
       </c>
       <c r="C21">
-        <v>0.02587063856965419</v>
+        <v>-0.006552356509174043</v>
       </c>
       <c r="D21">
-        <v>0.007899222376434022</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03661624496412032</v>
+      </c>
+      <c r="E21">
+        <v>0.005864224149915553</v>
+      </c>
+      <c r="F21">
+        <v>0.02422439899129452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.005400520692420183</v>
+        <v>0.04377617453692255</v>
       </c>
       <c r="C22">
-        <v>0.02949416512950626</v>
+        <v>-0.0009346425284037077</v>
       </c>
       <c r="D22">
-        <v>0.04314261823047443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002712049398467427</v>
+      </c>
+      <c r="E22">
+        <v>-0.02912206706384353</v>
+      </c>
+      <c r="F22">
+        <v>0.03530344704490114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.005387687760732567</v>
+        <v>0.04376178355175702</v>
       </c>
       <c r="C23">
-        <v>0.02942834246093849</v>
+        <v>-0.0009303997168328508</v>
       </c>
       <c r="D23">
-        <v>0.04319135672179291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.00271654673508175</v>
+      </c>
+      <c r="E23">
+        <v>-0.02932353108701144</v>
+      </c>
+      <c r="F23">
+        <v>0.03526657823190021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01975856152643579</v>
+        <v>0.08033507788256004</v>
       </c>
       <c r="C24">
-        <v>0.1100347158203834</v>
+        <v>-0.002463168456312301</v>
       </c>
       <c r="D24">
-        <v>-0.03328111309815907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1195557055855433</v>
+      </c>
+      <c r="E24">
+        <v>-0.04877471392842714</v>
+      </c>
+      <c r="F24">
+        <v>-0.02576616241365904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02557109058609263</v>
+        <v>0.08530666448288163</v>
       </c>
       <c r="C25">
-        <v>0.1120425570998006</v>
+        <v>-0.004672172624282586</v>
       </c>
       <c r="D25">
-        <v>-0.0276004495097701</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1084243110564108</v>
+      </c>
+      <c r="E25">
+        <v>-0.03224523772882688</v>
+      </c>
+      <c r="F25">
+        <v>-0.02661490075299622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02425023908843225</v>
+        <v>0.05777529807906716</v>
       </c>
       <c r="C26">
-        <v>0.04896048422846223</v>
+        <v>-0.0145009816617474</v>
       </c>
       <c r="D26">
-        <v>0.0152866137901718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03956385488979798</v>
+      </c>
+      <c r="E26">
+        <v>-0.02748876644915339</v>
+      </c>
+      <c r="F26">
+        <v>0.009551431718738032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.006398788020139687</v>
+        <v>0.14057915135546</v>
       </c>
       <c r="C28">
-        <v>0.0346902862634721</v>
+        <v>-0.01963936040387775</v>
       </c>
       <c r="D28">
-        <v>0.2157716149465425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2633863346733122</v>
+      </c>
+      <c r="E28">
+        <v>0.06826646036508609</v>
+      </c>
+      <c r="F28">
+        <v>-0.009153487389564036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0130932183459844</v>
+        <v>0.02769171345342127</v>
       </c>
       <c r="C29">
-        <v>0.02821309376066451</v>
+        <v>-0.008163366764477386</v>
       </c>
       <c r="D29">
-        <v>0.008848250644025443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03215376607671645</v>
+      </c>
+      <c r="E29">
+        <v>-0.01138686196731748</v>
+      </c>
+      <c r="F29">
+        <v>0.01048020569655775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01587116295393905</v>
+        <v>0.06143787169570943</v>
       </c>
       <c r="C30">
-        <v>0.1284814913267525</v>
+        <v>-0.003626499376262228</v>
       </c>
       <c r="D30">
-        <v>-0.02860541628624863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08823255974614255</v>
+      </c>
+      <c r="E30">
+        <v>-0.01901877674330215</v>
+      </c>
+      <c r="F30">
+        <v>-0.08335915726504539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02171293804542222</v>
+        <v>0.04999076686274279</v>
       </c>
       <c r="C31">
-        <v>0.03541559351329193</v>
+        <v>-0.01521788383527558</v>
       </c>
       <c r="D31">
-        <v>-0.00312118294455889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02507662543756272</v>
+      </c>
+      <c r="E31">
+        <v>-0.02760238073482997</v>
+      </c>
+      <c r="F31">
+        <v>0.002528777291730182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.008218743950562003</v>
+        <v>0.04992597180979613</v>
       </c>
       <c r="C32">
-        <v>0.06000922781506893</v>
+        <v>0.001850068104452724</v>
       </c>
       <c r="D32">
-        <v>0.02556316610552669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03701694383208875</v>
+      </c>
+      <c r="E32">
+        <v>-0.03109346595387484</v>
+      </c>
+      <c r="F32">
+        <v>-0.003122929976125707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02270174419673848</v>
+        <v>0.08960293067422415</v>
       </c>
       <c r="C33">
-        <v>0.1122677195413744</v>
+        <v>-0.007918899331378109</v>
       </c>
       <c r="D33">
-        <v>-0.03345565412091586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0988202780927258</v>
+      </c>
+      <c r="E33">
+        <v>-0.04408670883652196</v>
+      </c>
+      <c r="F33">
+        <v>-0.03559719302959972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02749253370865923</v>
+        <v>0.06852509157220731</v>
       </c>
       <c r="C34">
-        <v>0.09433368237698418</v>
+        <v>-0.01099770261764648</v>
       </c>
       <c r="D34">
-        <v>-0.01676225975345698</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1063617663799282</v>
+      </c>
+      <c r="E34">
+        <v>-0.03453080033490328</v>
+      </c>
+      <c r="F34">
+        <v>-0.03362926695243214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.004067974167719515</v>
+        <v>0.0241537723016081</v>
       </c>
       <c r="C35">
-        <v>0.01484254980559786</v>
+        <v>-0.002397759200649764</v>
       </c>
       <c r="D35">
-        <v>-0.001181547515938889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01175686629901503</v>
+      </c>
+      <c r="E35">
+        <v>-0.01171998104123011</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008720988879997033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01081871015186484</v>
+        <v>0.02752412585765086</v>
       </c>
       <c r="C36">
-        <v>0.02674943626725683</v>
+        <v>-0.007073814623320494</v>
       </c>
       <c r="D36">
-        <v>-0.01080444949383776</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03943467344071853</v>
+      </c>
+      <c r="E36">
+        <v>-0.01597757000469538</v>
+      </c>
+      <c r="F36">
+        <v>-0.0149370155584495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003636301736678863</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>6.055225434663205e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004900578278337141</v>
+      </c>
+      <c r="E37">
+        <v>0.0004329341144234904</v>
+      </c>
+      <c r="F37">
+        <v>-0.000686388975094486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005884224978711733</v>
+        <v>0.001331723164349248</v>
       </c>
       <c r="C38">
-        <v>0.00385654927919825</v>
+        <v>-0.0002020465283325157</v>
       </c>
       <c r="D38">
-        <v>0.001695213418901041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0004188605606412119</v>
+      </c>
+      <c r="E38">
+        <v>-0.0007811663807604283</v>
+      </c>
+      <c r="F38">
+        <v>0.0006471267954336557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04288912779326434</v>
+        <v>0.1057272695117762</v>
       </c>
       <c r="C39">
-        <v>0.1637414741329912</v>
+        <v>-0.01616171131146123</v>
       </c>
       <c r="D39">
-        <v>-0.0642971483587019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1532761415024672</v>
+      </c>
+      <c r="E39">
+        <v>-0.05899238823421194</v>
+      </c>
+      <c r="F39">
+        <v>-0.02812097877956434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01099829698695895</v>
+        <v>0.04132009185308096</v>
       </c>
       <c r="C40">
-        <v>0.01321571332494102</v>
+        <v>-0.007117043903356582</v>
       </c>
       <c r="D40">
-        <v>0.006518296995587623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03111614475768985</v>
+      </c>
+      <c r="E40">
+        <v>-0.002840539918677623</v>
+      </c>
+      <c r="F40">
+        <v>0.01600894179051481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01141764749922482</v>
+        <v>0.02766340661609684</v>
       </c>
       <c r="C41">
-        <v>0.01883975816191462</v>
+        <v>-0.006691535763042695</v>
       </c>
       <c r="D41">
-        <v>0.01286221138000694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01088358324064042</v>
+      </c>
+      <c r="E41">
+        <v>-0.01269322445276873</v>
+      </c>
+      <c r="F41">
+        <v>0.006595896815756314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0134045172895309</v>
+        <v>0.04055444397788938</v>
       </c>
       <c r="C43">
-        <v>0.02706307317356993</v>
+        <v>-0.006681435831297651</v>
       </c>
       <c r="D43">
-        <v>0.008158031842571375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02062591846832981</v>
+      </c>
+      <c r="E43">
+        <v>-0.02511510708648756</v>
+      </c>
+      <c r="F43">
+        <v>0.01267526564120771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03178360941724718</v>
+        <v>0.08042019726084086</v>
       </c>
       <c r="C44">
-        <v>0.1275377363164165</v>
+        <v>-0.02011100242076325</v>
       </c>
       <c r="D44">
-        <v>-0.01603401273599027</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09833621304145261</v>
+      </c>
+      <c r="E44">
+        <v>-0.06615609484638479</v>
+      </c>
+      <c r="F44">
+        <v>-0.1567586216786801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005342283333131809</v>
+        <v>0.02335991760900581</v>
       </c>
       <c r="C46">
-        <v>0.005891363322183123</v>
+        <v>-0.003285617902185487</v>
       </c>
       <c r="D46">
-        <v>0.01667913090920931</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01392267941034272</v>
+      </c>
+      <c r="E46">
+        <v>-0.02280220560193361</v>
+      </c>
+      <c r="F46">
+        <v>0.004709671413783381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01093609215506299</v>
+        <v>0.05140077498581693</v>
       </c>
       <c r="C47">
-        <v>0.03180408104199693</v>
+        <v>-0.003413004098652549</v>
       </c>
       <c r="D47">
-        <v>0.02765265518463932</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01394505237331461</v>
+      </c>
+      <c r="E47">
+        <v>-0.02356988822051261</v>
+      </c>
+      <c r="F47">
+        <v>0.03390652052626267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01270768742592059</v>
+        <v>0.04975181157696488</v>
       </c>
       <c r="C48">
-        <v>0.04980146238150283</v>
+        <v>-0.002286214537475758</v>
       </c>
       <c r="D48">
-        <v>-0.01086536457449721</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05016721411913383</v>
+      </c>
+      <c r="E48">
+        <v>0.006376421135545562</v>
+      </c>
+      <c r="F48">
+        <v>-0.009551056160268462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03994868395686537</v>
+        <v>0.1997234260514442</v>
       </c>
       <c r="C49">
-        <v>0.2186551840462884</v>
+        <v>-0.01855308768262571</v>
       </c>
       <c r="D49">
-        <v>0.06321779594262231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007413246369767758</v>
+      </c>
+      <c r="E49">
+        <v>-0.03149560788768424</v>
+      </c>
+      <c r="F49">
+        <v>-0.03946497161348458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01860347516150393</v>
+        <v>0.05076875284962384</v>
       </c>
       <c r="C50">
-        <v>0.03970221964467079</v>
+        <v>-0.01122342358909645</v>
       </c>
       <c r="D50">
-        <v>0.005250229992820296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02353856317888489</v>
+      </c>
+      <c r="E50">
+        <v>-0.02940399435918</v>
+      </c>
+      <c r="F50">
+        <v>-0.008891257593562399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004268134159498269</v>
+        <v>0.0008683882650963535</v>
       </c>
       <c r="C51">
-        <v>0.002057206145769341</v>
+        <v>-0.0002367680505369999</v>
       </c>
       <c r="D51">
-        <v>0.002981067450761795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0006579821112722717</v>
+      </c>
+      <c r="E51">
+        <v>-1.215485103782855e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002758227527347957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03205928669749439</v>
+        <v>0.1460813841002809</v>
       </c>
       <c r="C52">
-        <v>0.1499243704896793</v>
+        <v>-0.0153958086674574</v>
       </c>
       <c r="D52">
-        <v>-0.02265982270469262</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04542719967762255</v>
+      </c>
+      <c r="E52">
+        <v>-0.02053750071784068</v>
+      </c>
+      <c r="F52">
+        <v>-0.04078445300652853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03297793458566973</v>
+        <v>0.1725420308821613</v>
       </c>
       <c r="C53">
-        <v>0.1718162476109803</v>
+        <v>-0.01876032679760387</v>
       </c>
       <c r="D53">
-        <v>0.008101369316965808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005561596924046974</v>
+      </c>
+      <c r="E53">
+        <v>-0.03129999258693501</v>
+      </c>
+      <c r="F53">
+        <v>-0.07233538375755423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01652758568540996</v>
+        <v>0.02220823823051564</v>
       </c>
       <c r="C54">
-        <v>0.04010003113896952</v>
+        <v>-0.01258297441136335</v>
       </c>
       <c r="D54">
-        <v>0.01288171233880738</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03367241980871462</v>
+      </c>
+      <c r="E54">
+        <v>-0.01846034065800779</v>
+      </c>
+      <c r="F54">
+        <v>0.00391758223132665</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02541964416904727</v>
+        <v>0.1139427543392898</v>
       </c>
       <c r="C55">
-        <v>0.08662684714664394</v>
+        <v>-0.01640187250525241</v>
       </c>
       <c r="D55">
-        <v>-0.003003342373345368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009416708430060757</v>
+      </c>
+      <c r="E55">
+        <v>-0.02771833653239765</v>
+      </c>
+      <c r="F55">
+        <v>-0.04646413090728145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03412845925914074</v>
+        <v>0.1769947646103071</v>
       </c>
       <c r="C56">
-        <v>0.1599749254064376</v>
+        <v>-0.01613460872855232</v>
       </c>
       <c r="D56">
-        <v>0.02040834590404414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001087274188858275</v>
+      </c>
+      <c r="E56">
+        <v>-0.03561690575914879</v>
+      </c>
+      <c r="F56">
+        <v>-0.05065103229762478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01306683197306415</v>
+        <v>0.04648389444256529</v>
       </c>
       <c r="C58">
-        <v>0.05017686313925281</v>
+        <v>-0.0007154829673043596</v>
       </c>
       <c r="D58">
-        <v>-0.01002992646492712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06714408053046515</v>
+      </c>
+      <c r="E58">
+        <v>-0.02754420346968516</v>
+      </c>
+      <c r="F58">
+        <v>0.03632484786333454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01566961402097865</v>
+        <v>0.1672522219088043</v>
       </c>
       <c r="C59">
-        <v>0.09003685949272099</v>
+        <v>-0.0195787902458178</v>
       </c>
       <c r="D59">
-        <v>0.2345745469046415</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2155164220549764</v>
+      </c>
+      <c r="E59">
+        <v>0.04481032627308078</v>
+      </c>
+      <c r="F59">
+        <v>0.03385664135057186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02937537910536513</v>
+        <v>0.2312391599987335</v>
       </c>
       <c r="C60">
-        <v>0.2743654629843619</v>
+        <v>0.00279005817109004</v>
       </c>
       <c r="D60">
-        <v>-0.006428423636328386</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04210266434132386</v>
+      </c>
+      <c r="E60">
+        <v>-0.01111840990241862</v>
+      </c>
+      <c r="F60">
+        <v>0.006151579054427258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03059692953962204</v>
+        <v>0.08230875827706997</v>
       </c>
       <c r="C61">
-        <v>0.1235708140075638</v>
+        <v>-0.01203646648644912</v>
       </c>
       <c r="D61">
-        <v>-0.02526664537464019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157239972790417</v>
+      </c>
+      <c r="E61">
+        <v>-0.03853101848086186</v>
+      </c>
+      <c r="F61">
+        <v>-0.01116185921432084</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03635689197378519</v>
+        <v>0.1705110716395412</v>
       </c>
       <c r="C62">
-        <v>0.1624467223020421</v>
+        <v>-0.0195235974429908</v>
       </c>
       <c r="D62">
-        <v>0.01993124102925923</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00640042435164168</v>
+      </c>
+      <c r="E62">
+        <v>-0.03474813880175693</v>
+      </c>
+      <c r="F62">
+        <v>-0.03341646874318513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01215930639209006</v>
+        <v>0.04570168934978173</v>
       </c>
       <c r="C63">
-        <v>0.05243191024447921</v>
+        <v>-0.002069433140759065</v>
       </c>
       <c r="D63">
-        <v>-0.01095085722502073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05807310400655774</v>
+      </c>
+      <c r="E63">
+        <v>-0.02139300218149297</v>
+      </c>
+      <c r="F63">
+        <v>-0.005840528693413572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02467046992489821</v>
+        <v>0.1108401280290713</v>
       </c>
       <c r="C64">
-        <v>0.09632859495854929</v>
+        <v>-0.01120346716223641</v>
       </c>
       <c r="D64">
-        <v>0.00551690072255346</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04230364008594234</v>
+      </c>
+      <c r="E64">
+        <v>-0.023760229012277</v>
+      </c>
+      <c r="F64">
+        <v>-0.02549732605279494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03988656753240347</v>
+        <v>0.1480490184668727</v>
       </c>
       <c r="C65">
-        <v>0.106642280028163</v>
+        <v>-0.03259561418870426</v>
       </c>
       <c r="D65">
-        <v>0.01934432995936092</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04243052322439138</v>
+      </c>
+      <c r="E65">
+        <v>-0.002495477053971023</v>
+      </c>
+      <c r="F65">
+        <v>-0.03961120043268179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.04164264459402069</v>
+        <v>0.1251968811196188</v>
       </c>
       <c r="C66">
-        <v>0.1924655228545291</v>
+        <v>-0.01423110021800581</v>
       </c>
       <c r="D66">
-        <v>-0.05133623519019631</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1417404569566201</v>
+      </c>
+      <c r="E66">
+        <v>-0.06651815326954487</v>
+      </c>
+      <c r="F66">
+        <v>-0.03063526303472564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01485751684884836</v>
+        <v>0.06072568602014445</v>
       </c>
       <c r="C67">
-        <v>0.07437813235975761</v>
+        <v>-0.003238261755666767</v>
       </c>
       <c r="D67">
-        <v>-0.005096493252945818</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0555983352798749</v>
+      </c>
+      <c r="E67">
+        <v>-0.0175241821129149</v>
+      </c>
+      <c r="F67">
+        <v>0.0339852869761359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01722962623304282</v>
+        <v>0.116320103564343</v>
       </c>
       <c r="C68">
-        <v>0.02419934851218076</v>
+        <v>-0.03020582774478294</v>
       </c>
       <c r="D68">
-        <v>0.204255525776661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605093028329198</v>
+      </c>
+      <c r="E68">
+        <v>0.08667758165252464</v>
+      </c>
+      <c r="F68">
+        <v>-0.005135697991917769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005983411886418942</v>
+        <v>0.0398283904555342</v>
       </c>
       <c r="C69">
-        <v>0.03334010446386799</v>
+        <v>-0.001381062679878745</v>
       </c>
       <c r="D69">
-        <v>0.004833466777554939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007238030143790167</v>
+      </c>
+      <c r="E69">
+        <v>-0.02306708889569852</v>
+      </c>
+      <c r="F69">
+        <v>0.000946698494361775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0005320983347972381</v>
+        <v>0.06580056059110626</v>
       </c>
       <c r="C70">
-        <v>0.03587883494434226</v>
+        <v>0.028035457502834</v>
       </c>
       <c r="D70">
-        <v>0.003898783884092441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02517134867884564</v>
+      </c>
+      <c r="E70">
+        <v>0.03970477828064967</v>
+      </c>
+      <c r="F70">
+        <v>0.18573979680327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.02101178720939763</v>
+        <v>0.1363524446504593</v>
       </c>
       <c r="C71">
-        <v>0.03086515190207326</v>
+        <v>-0.03468275238179527</v>
       </c>
       <c r="D71">
-        <v>0.2173094311508091</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2734121213172171</v>
+      </c>
+      <c r="E71">
+        <v>0.09651000744193713</v>
+      </c>
+      <c r="F71">
+        <v>-0.01189108415537852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03680639751284507</v>
+        <v>0.1418913929420664</v>
       </c>
       <c r="C72">
-        <v>0.1184918924312395</v>
+        <v>-0.02574092785660913</v>
       </c>
       <c r="D72">
-        <v>0.03381036467441694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006935143886443608</v>
+      </c>
+      <c r="E72">
+        <v>-0.03870896716841381</v>
+      </c>
+      <c r="F72">
+        <v>-0.03459604542817578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03481057738297598</v>
+        <v>0.2006682919070636</v>
       </c>
       <c r="C73">
-        <v>0.2128727695841732</v>
+        <v>-0.01244736614711709</v>
       </c>
       <c r="D73">
-        <v>0.0493243448824123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01728730262014831</v>
+      </c>
+      <c r="E73">
+        <v>-0.06457241676965442</v>
+      </c>
+      <c r="F73">
+        <v>-0.03875092447545916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.02105261270995828</v>
+        <v>0.09482906955823052</v>
       </c>
       <c r="C74">
-        <v>0.1073752257177774</v>
+        <v>-0.01305763673120153</v>
       </c>
       <c r="D74">
-        <v>0.01867099187112531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01776582862910641</v>
+      </c>
+      <c r="E74">
+        <v>-0.04442220440549827</v>
+      </c>
+      <c r="F74">
+        <v>-0.05599111268567266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.0424855860260159</v>
+        <v>0.1283269500670088</v>
       </c>
       <c r="C75">
-        <v>0.1331938386454849</v>
+        <v>-0.02763928344706932</v>
       </c>
       <c r="D75">
-        <v>0.02587370230478024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03029990889055884</v>
+      </c>
+      <c r="E75">
+        <v>-0.05806247955407452</v>
+      </c>
+      <c r="F75">
+        <v>-0.01756316856792758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.000303715396817558</v>
+        <v>0.0008245696885925074</v>
       </c>
       <c r="C76">
-        <v>0.002604459935969949</v>
+        <v>-0.0002252075247197308</v>
       </c>
       <c r="D76">
-        <v>0.003483943774051122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0008389853981824958</v>
+      </c>
+      <c r="E76">
+        <v>-0.0001145487271210087</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006362461477062492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02419940635064254</v>
+        <v>0.08551662229130941</v>
       </c>
       <c r="C77">
-        <v>0.09552905563796057</v>
+        <v>-0.008162103592579316</v>
       </c>
       <c r="D77">
-        <v>-0.06940232562817703</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1142699521662743</v>
+      </c>
+      <c r="E77">
+        <v>-0.03893871149151288</v>
+      </c>
+      <c r="F77">
+        <v>-0.03212909311482753</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05473726568642406</v>
+        <v>0.09987973731687559</v>
       </c>
       <c r="C78">
-        <v>0.1383268810311914</v>
+        <v>-0.03940162748704693</v>
       </c>
       <c r="D78">
-        <v>0.004248219181847958</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1166667720834209</v>
+      </c>
+      <c r="E78">
+        <v>-0.07494659411328956</v>
+      </c>
+      <c r="F78">
+        <v>-0.04597415062483198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03753900558778207</v>
+        <v>0.1646501140913416</v>
       </c>
       <c r="C79">
-        <v>0.1438178743553428</v>
+        <v>-0.02211803732306393</v>
       </c>
       <c r="D79">
-        <v>0.02713166929855504</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0158577210788794</v>
+      </c>
+      <c r="E79">
+        <v>-0.04681874085451473</v>
+      </c>
+      <c r="F79">
+        <v>-0.01054555638561739</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.009345220642151408</v>
+        <v>0.0823383801998166</v>
       </c>
       <c r="C80">
-        <v>0.08356296981168133</v>
+        <v>0.001036672663531837</v>
       </c>
       <c r="D80">
-        <v>0.004812069139274089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05794105256251725</v>
+      </c>
+      <c r="E80">
+        <v>-0.03741118847822079</v>
+      </c>
+      <c r="F80">
+        <v>0.02379123154347613</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04432137583486329</v>
+        <v>0.1216136381656748</v>
       </c>
       <c r="C81">
-        <v>0.1377887962373052</v>
+        <v>-0.03152108520965436</v>
       </c>
       <c r="D81">
-        <v>0.0109871008572232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01640134396525153</v>
+      </c>
+      <c r="E81">
+        <v>-0.05789980570743677</v>
+      </c>
+      <c r="F81">
+        <v>-0.01591269172853883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.0394231179567019</v>
+        <v>0.1665019861689359</v>
       </c>
       <c r="C82">
-        <v>0.1652063907076501</v>
+        <v>-0.02401453565373195</v>
       </c>
       <c r="D82">
-        <v>0.02500420673635265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003747113027720127</v>
+      </c>
+      <c r="E82">
+        <v>-0.02780974578842007</v>
+      </c>
+      <c r="F82">
+        <v>-0.07919662752746683</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.017289605894601</v>
+        <v>0.06075027683302182</v>
       </c>
       <c r="C83">
-        <v>0.07172684186260808</v>
+        <v>-0.003068110410812089</v>
       </c>
       <c r="D83">
-        <v>-0.005035121778124233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05024502450035885</v>
+      </c>
+      <c r="E83">
+        <v>-0.004779391420302477</v>
+      </c>
+      <c r="F83">
+        <v>0.03181982126458775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02721797682627262</v>
+        <v>0.05805507391496079</v>
       </c>
       <c r="C84">
-        <v>0.07855984504043462</v>
+        <v>-0.01086856332067331</v>
       </c>
       <c r="D84">
-        <v>-0.01375465871694041</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06523347519859597</v>
+      </c>
+      <c r="E84">
+        <v>-0.007364095354639681</v>
+      </c>
+      <c r="F84">
+        <v>-0.003675970477712146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.03892731897412567</v>
+        <v>0.1365815531582646</v>
       </c>
       <c r="C85">
-        <v>0.1187697635295504</v>
+        <v>-0.02747903604906201</v>
       </c>
       <c r="D85">
-        <v>0.01246747753798175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01137326122631293</v>
+      </c>
+      <c r="E85">
+        <v>-0.03890042631643719</v>
+      </c>
+      <c r="F85">
+        <v>-0.04486216252407123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.01201063215288015</v>
+        <v>0.09374231123886266</v>
       </c>
       <c r="C86">
-        <v>0.09776037314457686</v>
+        <v>0.006335856911810963</v>
       </c>
       <c r="D86">
-        <v>0.2355090119970668</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04152851042387001</v>
+      </c>
+      <c r="E86">
+        <v>-0.2121084791622098</v>
+      </c>
+      <c r="F86">
+        <v>0.9085751799500603</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03943194141263794</v>
+        <v>0.09691902338956117</v>
       </c>
       <c r="C87">
-        <v>0.1019480533242048</v>
+        <v>-0.0198518068380106</v>
       </c>
       <c r="D87">
-        <v>-0.05899432861913763</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09610100215734715</v>
+      </c>
+      <c r="E87">
+        <v>0.05071934276911682</v>
+      </c>
+      <c r="F87">
+        <v>-0.05327331575518524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0137556822576169</v>
+        <v>0.06086427740256644</v>
       </c>
       <c r="C88">
-        <v>0.06041680287364386</v>
+        <v>-0.002221769378374963</v>
       </c>
       <c r="D88">
-        <v>-0.00951627374695156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04999173644902392</v>
+      </c>
+      <c r="E88">
+        <v>-0.02481052712130606</v>
+      </c>
+      <c r="F88">
+        <v>-0.0119193827165486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.002338300185127532</v>
+        <v>0.1343223586227903</v>
       </c>
       <c r="C89">
-        <v>0.0495995918141313</v>
+        <v>-0.01244769377020983</v>
       </c>
       <c r="D89">
-        <v>0.2584603231860131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2524266685850445</v>
+      </c>
+      <c r="E89">
+        <v>0.09125820388642809</v>
+      </c>
+      <c r="F89">
+        <v>0.008033580793939321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01953489259216468</v>
+        <v>0.1496374972143197</v>
       </c>
       <c r="C90">
-        <v>0.03371146802414815</v>
+        <v>-0.03071458655598102</v>
       </c>
       <c r="D90">
-        <v>0.2252550610114911</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683000354711683</v>
+      </c>
+      <c r="E90">
+        <v>0.1116020983745421</v>
+      </c>
+      <c r="F90">
+        <v>0.001692283948057592</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02476091258359624</v>
+        <v>0.1203334646728556</v>
       </c>
       <c r="C91">
-        <v>0.1005497210268031</v>
+        <v>-0.01860179906278675</v>
       </c>
       <c r="D91">
-        <v>0.02466256399412597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01285357105033852</v>
+      </c>
+      <c r="E91">
+        <v>-0.05616793397403271</v>
+      </c>
+      <c r="F91">
+        <v>0.003376712955057549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.004974406971071127</v>
+        <v>0.1474155151209366</v>
       </c>
       <c r="C92">
-        <v>0.0463036590426143</v>
+        <v>-0.02246347295612212</v>
       </c>
       <c r="D92">
-        <v>0.2455612452822536</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913415061828513</v>
+      </c>
+      <c r="E92">
+        <v>0.1007395879674888</v>
+      </c>
+      <c r="F92">
+        <v>0.01324543492929107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01684986423635742</v>
+        <v>0.1518785673096823</v>
       </c>
       <c r="C93">
-        <v>0.04756168227783508</v>
+        <v>-0.02690124222784917</v>
       </c>
       <c r="D93">
-        <v>0.2486994722792905</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2693091703977773</v>
+      </c>
+      <c r="E93">
+        <v>0.07747437908319223</v>
+      </c>
+      <c r="F93">
+        <v>-0.002550499726154428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04146599240860969</v>
+        <v>0.1310219472190796</v>
       </c>
       <c r="C94">
-        <v>0.1492095211032569</v>
+        <v>-0.02456006381961783</v>
       </c>
       <c r="D94">
-        <v>0.01009905355272858</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04279284881550529</v>
+      </c>
+      <c r="E94">
+        <v>-0.05776905020079038</v>
+      </c>
+      <c r="F94">
+        <v>-0.03548957320482051</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02665053826431866</v>
+        <v>0.1275080713664108</v>
       </c>
       <c r="C95">
-        <v>0.1423156008090357</v>
+        <v>-0.003965901306089282</v>
       </c>
       <c r="D95">
-        <v>-0.02401968280828188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09121867917331151</v>
+      </c>
+      <c r="E95">
+        <v>-0.04653852481721575</v>
+      </c>
+      <c r="F95">
+        <v>0.007081015816476742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9739174937608569</v>
+        <v>0.1049772093296247</v>
       </c>
       <c r="C96">
-        <v>0.2079728498670161</v>
+        <v>0.9878107020547042</v>
       </c>
       <c r="D96">
-        <v>0.02161304633568161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04448269531687555</v>
+      </c>
+      <c r="E96">
+        <v>-0.05586335555432619</v>
+      </c>
+      <c r="F96">
+        <v>-0.04227443081369801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.005621362887901862</v>
+        <v>0.1933604980630563</v>
       </c>
       <c r="C97">
-        <v>0.1602771966937004</v>
+        <v>0.007555555511167388</v>
       </c>
       <c r="D97">
-        <v>0.09374549066268362</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01848524044461805</v>
+      </c>
+      <c r="E97">
+        <v>-0.0176725560067118</v>
+      </c>
+      <c r="F97">
+        <v>0.09093020059969366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02790859212013542</v>
+        <v>0.2044291586059374</v>
       </c>
       <c r="C98">
-        <v>0.1994979066661134</v>
+        <v>-0.00706251599002051</v>
       </c>
       <c r="D98">
-        <v>0.03229923709577809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0128124648791394</v>
+      </c>
+      <c r="E98">
+        <v>0.08415379231120766</v>
+      </c>
+      <c r="F98">
+        <v>0.09357522410136029</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.005368005107592737</v>
+        <v>0.05548273430846887</v>
       </c>
       <c r="C99">
-        <v>0.06416607427208877</v>
+        <v>0.004914217342133765</v>
       </c>
       <c r="D99">
-        <v>0.02400530147486464</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04021681700639483</v>
+      </c>
+      <c r="E99">
+        <v>-0.02348277564986778</v>
+      </c>
+      <c r="F99">
+        <v>-0.00132071585429528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.008286311482775669</v>
+        <v>0.1251149344052955</v>
       </c>
       <c r="C100">
-        <v>0.1911884447854323</v>
+        <v>0.05404419801691931</v>
       </c>
       <c r="D100">
-        <v>-0.6584152564950884</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.34484054548995</v>
+      </c>
+      <c r="E100">
+        <v>0.8892047970371241</v>
+      </c>
+      <c r="F100">
+        <v>0.1403523761835623</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01310825413314182</v>
+        <v>0.02761657944989148</v>
       </c>
       <c r="C101">
-        <v>0.02820657840398781</v>
+        <v>-0.008172573303702944</v>
       </c>
       <c r="D101">
-        <v>0.008681353205932357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03186859935341673</v>
+      </c>
+      <c r="E101">
+        <v>-0.01083505672101858</v>
+      </c>
+      <c r="F101">
+        <v>0.01176004822929383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
